--- a/weight/bathroom-scale.xlsx
+++ b/weight/bathroom-scale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lucent\health-data\weight\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029A4F5-1BCB-4286-AC3C-3F8CAC99E77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2483DDAB-1029-43E1-BA0C-26CA3C341E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="77040" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15375" yWindow="4290" windowWidth="32940" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="weight" sheetId="1" r:id="rId1"/>
@@ -3674,7 +3674,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3689,6 +3689,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3825,10 +3826,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>weight!$A$2:$A$1402</c:f>
+              <c:f>weight!$A$2:$A$1506</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd;@</c:formatCode>
-                <c:ptCount val="1401"/>
+                <c:ptCount val="1505"/>
                 <c:pt idx="0">
                   <c:v>36297</c:v>
                 </c:pt>
@@ -8031,16 +8032,328 @@
                 </c:pt>
                 <c:pt idx="1400">
                   <c:v>45575</c:v>
+                </c:pt>
+                <c:pt idx="1401">
+                  <c:v>45576</c:v>
+                </c:pt>
+                <c:pt idx="1402">
+                  <c:v>45577</c:v>
+                </c:pt>
+                <c:pt idx="1403">
+                  <c:v>45578</c:v>
+                </c:pt>
+                <c:pt idx="1404">
+                  <c:v>45580</c:v>
+                </c:pt>
+                <c:pt idx="1405">
+                  <c:v>45581</c:v>
+                </c:pt>
+                <c:pt idx="1406">
+                  <c:v>45582</c:v>
+                </c:pt>
+                <c:pt idx="1407" formatCode="m/d/yyyy">
+                  <c:v>45583</c:v>
+                </c:pt>
+                <c:pt idx="1408" formatCode="m/d/yyyy">
+                  <c:v>45584</c:v>
+                </c:pt>
+                <c:pt idx="1409" formatCode="m/d/yyyy">
+                  <c:v>45585</c:v>
+                </c:pt>
+                <c:pt idx="1410" formatCode="m/d/yyyy">
+                  <c:v>45586</c:v>
+                </c:pt>
+                <c:pt idx="1411" formatCode="m/d/yyyy">
+                  <c:v>45588</c:v>
+                </c:pt>
+                <c:pt idx="1412" formatCode="m/d/yyyy">
+                  <c:v>45589</c:v>
+                </c:pt>
+                <c:pt idx="1413" formatCode="m/d/yyyy">
+                  <c:v>45590</c:v>
+                </c:pt>
+                <c:pt idx="1414" formatCode="m/d/yyyy">
+                  <c:v>45591</c:v>
+                </c:pt>
+                <c:pt idx="1415" formatCode="m/d/yyyy">
+                  <c:v>45592</c:v>
+                </c:pt>
+                <c:pt idx="1416" formatCode="m/d/yyyy">
+                  <c:v>45593</c:v>
+                </c:pt>
+                <c:pt idx="1417" formatCode="m/d/yyyy">
+                  <c:v>45594</c:v>
+                </c:pt>
+                <c:pt idx="1418" formatCode="m/d/yyyy">
+                  <c:v>45595</c:v>
+                </c:pt>
+                <c:pt idx="1419" formatCode="m/d/yyyy">
+                  <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="1420" formatCode="m/d/yyyy">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="1421" formatCode="m/d/yyyy">
+                  <c:v>45598</c:v>
+                </c:pt>
+                <c:pt idx="1422" formatCode="m/d/yyyy">
+                  <c:v>45599</c:v>
+                </c:pt>
+                <c:pt idx="1423" formatCode="m/d/yyyy">
+                  <c:v>45599</c:v>
+                </c:pt>
+                <c:pt idx="1424" formatCode="m/d/yyyy">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="1425" formatCode="m/d/yyyy">
+                  <c:v>45601</c:v>
+                </c:pt>
+                <c:pt idx="1426" formatCode="m/d/yyyy">
+                  <c:v>45602</c:v>
+                </c:pt>
+                <c:pt idx="1427" formatCode="m/d/yyyy">
+                  <c:v>45603</c:v>
+                </c:pt>
+                <c:pt idx="1428" formatCode="m/d/yyyy">
+                  <c:v>45604</c:v>
+                </c:pt>
+                <c:pt idx="1429" formatCode="m/d/yyyy">
+                  <c:v>45605</c:v>
+                </c:pt>
+                <c:pt idx="1430" formatCode="m/d/yyyy">
+                  <c:v>45606</c:v>
+                </c:pt>
+                <c:pt idx="1431" formatCode="m/d/yyyy">
+                  <c:v>45607</c:v>
+                </c:pt>
+                <c:pt idx="1432" formatCode="m/d/yyyy">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="1433" formatCode="m/d/yyyy">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="1434" formatCode="m/d/yyyy">
+                  <c:v>45610</c:v>
+                </c:pt>
+                <c:pt idx="1435" formatCode="m/d/yyyy">
+                  <c:v>45611</c:v>
+                </c:pt>
+                <c:pt idx="1436" formatCode="m/d/yyyy">
+                  <c:v>45612</c:v>
+                </c:pt>
+                <c:pt idx="1437" formatCode="m/d/yyyy">
+                  <c:v>45613</c:v>
+                </c:pt>
+                <c:pt idx="1438" formatCode="m/d/yyyy">
+                  <c:v>45615</c:v>
+                </c:pt>
+                <c:pt idx="1439" formatCode="m/d/yyyy">
+                  <c:v>45616</c:v>
+                </c:pt>
+                <c:pt idx="1440" formatCode="m/d/yyyy">
+                  <c:v>45617</c:v>
+                </c:pt>
+                <c:pt idx="1441" formatCode="m/d/yyyy">
+                  <c:v>45618</c:v>
+                </c:pt>
+                <c:pt idx="1442" formatCode="m/d/yyyy">
+                  <c:v>45619</c:v>
+                </c:pt>
+                <c:pt idx="1443" formatCode="m/d/yyyy">
+                  <c:v>45619</c:v>
+                </c:pt>
+                <c:pt idx="1444" formatCode="m/d/yyyy">
+                  <c:v>45620</c:v>
+                </c:pt>
+                <c:pt idx="1445" formatCode="m/d/yyyy">
+                  <c:v>45621</c:v>
+                </c:pt>
+                <c:pt idx="1446" formatCode="m/d/yyyy">
+                  <c:v>45622</c:v>
+                </c:pt>
+                <c:pt idx="1447" formatCode="m/d/yyyy">
+                  <c:v>45628</c:v>
+                </c:pt>
+                <c:pt idx="1448" formatCode="m/d/yyyy">
+                  <c:v>45629</c:v>
+                </c:pt>
+                <c:pt idx="1449" formatCode="m/d/yyyy">
+                  <c:v>45630</c:v>
+                </c:pt>
+                <c:pt idx="1450" formatCode="m/d/yyyy">
+                  <c:v>45631</c:v>
+                </c:pt>
+                <c:pt idx="1451" formatCode="m/d/yyyy">
+                  <c:v>45632</c:v>
+                </c:pt>
+                <c:pt idx="1452" formatCode="m/d/yyyy">
+                  <c:v>45633</c:v>
+                </c:pt>
+                <c:pt idx="1453" formatCode="m/d/yyyy">
+                  <c:v>45634</c:v>
+                </c:pt>
+                <c:pt idx="1454" formatCode="m/d/yyyy">
+                  <c:v>45635</c:v>
+                </c:pt>
+                <c:pt idx="1455" formatCode="m/d/yyyy">
+                  <c:v>45636</c:v>
+                </c:pt>
+                <c:pt idx="1456" formatCode="m/d/yyyy">
+                  <c:v>45637</c:v>
+                </c:pt>
+                <c:pt idx="1457" formatCode="m/d/yyyy">
+                  <c:v>45638</c:v>
+                </c:pt>
+                <c:pt idx="1458" formatCode="m/d/yyyy">
+                  <c:v>45639</c:v>
+                </c:pt>
+                <c:pt idx="1459" formatCode="m/d/yyyy">
+                  <c:v>45640</c:v>
+                </c:pt>
+                <c:pt idx="1460" formatCode="m/d/yyyy">
+                  <c:v>45641</c:v>
+                </c:pt>
+                <c:pt idx="1461" formatCode="m/d/yyyy">
+                  <c:v>45642</c:v>
+                </c:pt>
+                <c:pt idx="1462" formatCode="m/d/yyyy">
+                  <c:v>45643</c:v>
+                </c:pt>
+                <c:pt idx="1463" formatCode="m/d/yyyy">
+                  <c:v>45653</c:v>
+                </c:pt>
+                <c:pt idx="1464" formatCode="m/d/yyyy">
+                  <c:v>45654</c:v>
+                </c:pt>
+                <c:pt idx="1465" formatCode="m/d/yyyy">
+                  <c:v>45655</c:v>
+                </c:pt>
+                <c:pt idx="1466" formatCode="m/d/yyyy">
+                  <c:v>45656</c:v>
+                </c:pt>
+                <c:pt idx="1467" formatCode="m/d/yyyy">
+                  <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="1468" formatCode="m/d/yyyy">
+                  <c:v>45659</c:v>
+                </c:pt>
+                <c:pt idx="1469" formatCode="m/d/yyyy">
+                  <c:v>45660</c:v>
+                </c:pt>
+                <c:pt idx="1470" formatCode="m/d/yyyy">
+                  <c:v>45661</c:v>
+                </c:pt>
+                <c:pt idx="1471" formatCode="m/d/yyyy">
+                  <c:v>45662</c:v>
+                </c:pt>
+                <c:pt idx="1472" formatCode="m/d/yyyy">
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="1473" formatCode="m/d/yyyy">
+                  <c:v>45664</c:v>
+                </c:pt>
+                <c:pt idx="1474" formatCode="m/d/yyyy">
+                  <c:v>45665</c:v>
+                </c:pt>
+                <c:pt idx="1475" formatCode="m/d/yyyy">
+                  <c:v>45666</c:v>
+                </c:pt>
+                <c:pt idx="1476" formatCode="m/d/yyyy">
+                  <c:v>45667</c:v>
+                </c:pt>
+                <c:pt idx="1477" formatCode="m/d/yyyy">
+                  <c:v>45668</c:v>
+                </c:pt>
+                <c:pt idx="1478" formatCode="m/d/yyyy">
+                  <c:v>45669</c:v>
+                </c:pt>
+                <c:pt idx="1479" formatCode="m/d/yyyy">
+                  <c:v>45670</c:v>
+                </c:pt>
+                <c:pt idx="1480" formatCode="m/d/yyyy">
+                  <c:v>45671</c:v>
+                </c:pt>
+                <c:pt idx="1481" formatCode="m/d/yyyy">
+                  <c:v>45672</c:v>
+                </c:pt>
+                <c:pt idx="1482" formatCode="m/d/yyyy">
+                  <c:v>45673</c:v>
+                </c:pt>
+                <c:pt idx="1483" formatCode="m/d/yyyy">
+                  <c:v>45674</c:v>
+                </c:pt>
+                <c:pt idx="1484" formatCode="m/d/yyyy">
+                  <c:v>45675</c:v>
+                </c:pt>
+                <c:pt idx="1485" formatCode="m/d/yyyy">
+                  <c:v>45676</c:v>
+                </c:pt>
+                <c:pt idx="1486" formatCode="m/d/yyyy">
+                  <c:v>45677</c:v>
+                </c:pt>
+                <c:pt idx="1487" formatCode="m/d/yyyy">
+                  <c:v>45678</c:v>
+                </c:pt>
+                <c:pt idx="1488" formatCode="m/d/yyyy">
+                  <c:v>45679</c:v>
+                </c:pt>
+                <c:pt idx="1489" formatCode="m/d/yyyy">
+                  <c:v>45680</c:v>
+                </c:pt>
+                <c:pt idx="1490" formatCode="m/d/yyyy">
+                  <c:v>45681</c:v>
+                </c:pt>
+                <c:pt idx="1491" formatCode="m/d/yyyy">
+                  <c:v>45682</c:v>
+                </c:pt>
+                <c:pt idx="1492" formatCode="m/d/yyyy">
+                  <c:v>45683</c:v>
+                </c:pt>
+                <c:pt idx="1493" formatCode="m/d/yyyy">
+                  <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="1494" formatCode="m/d/yyyy">
+                  <c:v>45685</c:v>
+                </c:pt>
+                <c:pt idx="1495" formatCode="m/d/yyyy">
+                  <c:v>45686</c:v>
+                </c:pt>
+                <c:pt idx="1496" formatCode="m/d/yyyy">
+                  <c:v>45687</c:v>
+                </c:pt>
+                <c:pt idx="1497" formatCode="m/d/yyyy">
+                  <c:v>45688</c:v>
+                </c:pt>
+                <c:pt idx="1498" formatCode="m/d/yyyy">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="1499" formatCode="m/d/yyyy">
+                  <c:v>45690</c:v>
+                </c:pt>
+                <c:pt idx="1500" formatCode="m/d/yyyy">
+                  <c:v>45691</c:v>
+                </c:pt>
+                <c:pt idx="1501" formatCode="m/d/yyyy">
+                  <c:v>45692</c:v>
+                </c:pt>
+                <c:pt idx="1502" formatCode="m/d/yyyy">
+                  <c:v>45693</c:v>
+                </c:pt>
+                <c:pt idx="1503" formatCode="m/d/yyyy">
+                  <c:v>45694</c:v>
+                </c:pt>
+                <c:pt idx="1504" formatCode="m/d/yyyy">
+                  <c:v>45695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>weight!$B$2:$B$1402</c:f>
+              <c:f>weight!$B$2:$B$1506</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="1401"/>
+                <c:ptCount val="1505"/>
                 <c:pt idx="0">
                   <c:v>217</c:v>
                 </c:pt>
@@ -12243,6 +12556,318 @@
                 </c:pt>
                 <c:pt idx="1400" formatCode="General">
                   <c:v>225.9</c:v>
+                </c:pt>
+                <c:pt idx="1401" formatCode="General">
+                  <c:v>226.2</c:v>
+                </c:pt>
+                <c:pt idx="1402" formatCode="General">
+                  <c:v>225.5</c:v>
+                </c:pt>
+                <c:pt idx="1403" formatCode="General">
+                  <c:v>226.6</c:v>
+                </c:pt>
+                <c:pt idx="1404" formatCode="General">
+                  <c:v>225.6</c:v>
+                </c:pt>
+                <c:pt idx="1405" formatCode="General">
+                  <c:v>225.8</c:v>
+                </c:pt>
+                <c:pt idx="1406" formatCode="General">
+                  <c:v>224.8</c:v>
+                </c:pt>
+                <c:pt idx="1407" formatCode="General">
+                  <c:v>224.4</c:v>
+                </c:pt>
+                <c:pt idx="1408" formatCode="General">
+                  <c:v>224.3</c:v>
+                </c:pt>
+                <c:pt idx="1409" formatCode="General">
+                  <c:v>223.8</c:v>
+                </c:pt>
+                <c:pt idx="1410" formatCode="General">
+                  <c:v>225.2</c:v>
+                </c:pt>
+                <c:pt idx="1411" formatCode="General">
+                  <c:v>225.2</c:v>
+                </c:pt>
+                <c:pt idx="1412" formatCode="General">
+                  <c:v>224.4</c:v>
+                </c:pt>
+                <c:pt idx="1413" formatCode="General">
+                  <c:v>224.3</c:v>
+                </c:pt>
+                <c:pt idx="1414" formatCode="General">
+                  <c:v>224.4</c:v>
+                </c:pt>
+                <c:pt idx="1415" formatCode="General">
+                  <c:v>225.1</c:v>
+                </c:pt>
+                <c:pt idx="1416" formatCode="General">
+                  <c:v>224.8</c:v>
+                </c:pt>
+                <c:pt idx="1417" formatCode="General">
+                  <c:v>224.4</c:v>
+                </c:pt>
+                <c:pt idx="1418" formatCode="General">
+                  <c:v>224.3</c:v>
+                </c:pt>
+                <c:pt idx="1419" formatCode="General">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="1420" formatCode="General">
+                  <c:v>223.3</c:v>
+                </c:pt>
+                <c:pt idx="1421" formatCode="General">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="1422" formatCode="General">
+                  <c:v>223.1</c:v>
+                </c:pt>
+                <c:pt idx="1423" formatCode="General">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="1424" formatCode="General">
+                  <c:v>222.9</c:v>
+                </c:pt>
+                <c:pt idx="1425" formatCode="General">
+                  <c:v>222.6</c:v>
+                </c:pt>
+                <c:pt idx="1426" formatCode="General">
+                  <c:v>221.7</c:v>
+                </c:pt>
+                <c:pt idx="1427" formatCode="General">
+                  <c:v>222.2</c:v>
+                </c:pt>
+                <c:pt idx="1428" formatCode="General">
+                  <c:v>222.3</c:v>
+                </c:pt>
+                <c:pt idx="1429" formatCode="General">
+                  <c:v>221.7</c:v>
+                </c:pt>
+                <c:pt idx="1430" formatCode="General">
+                  <c:v>221.7</c:v>
+                </c:pt>
+                <c:pt idx="1431" formatCode="General">
+                  <c:v>223.4</c:v>
+                </c:pt>
+                <c:pt idx="1432" formatCode="General">
+                  <c:v>222.8</c:v>
+                </c:pt>
+                <c:pt idx="1433" formatCode="General">
+                  <c:v>222.8</c:v>
+                </c:pt>
+                <c:pt idx="1434" formatCode="General">
+                  <c:v>222.8</c:v>
+                </c:pt>
+                <c:pt idx="1435" formatCode="General">
+                  <c:v>222.2</c:v>
+                </c:pt>
+                <c:pt idx="1436" formatCode="General">
+                  <c:v>221.9</c:v>
+                </c:pt>
+                <c:pt idx="1437" formatCode="General">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="1438" formatCode="General">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="1439" formatCode="General">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="1440" formatCode="General">
+                  <c:v>221.8</c:v>
+                </c:pt>
+                <c:pt idx="1441" formatCode="General">
+                  <c:v>222.1</c:v>
+                </c:pt>
+                <c:pt idx="1442" formatCode="General">
+                  <c:v>221.6</c:v>
+                </c:pt>
+                <c:pt idx="1443" formatCode="General">
+                  <c:v>221.2</c:v>
+                </c:pt>
+                <c:pt idx="1444" formatCode="General">
+                  <c:v>220.3</c:v>
+                </c:pt>
+                <c:pt idx="1445" formatCode="General">
+                  <c:v>221.5</c:v>
+                </c:pt>
+                <c:pt idx="1446" formatCode="General">
+                  <c:v>222.4</c:v>
+                </c:pt>
+                <c:pt idx="1447" formatCode="General">
+                  <c:v>221.9</c:v>
+                </c:pt>
+                <c:pt idx="1448" formatCode="General">
+                  <c:v>221.9</c:v>
+                </c:pt>
+                <c:pt idx="1449" formatCode="General">
+                  <c:v>221.7</c:v>
+                </c:pt>
+                <c:pt idx="1450" formatCode="General">
+                  <c:v>220.6</c:v>
+                </c:pt>
+                <c:pt idx="1451" formatCode="General">
+                  <c:v>219.8</c:v>
+                </c:pt>
+                <c:pt idx="1452" formatCode="General">
+                  <c:v>220.1</c:v>
+                </c:pt>
+                <c:pt idx="1453" formatCode="General">
+                  <c:v>221.2</c:v>
+                </c:pt>
+                <c:pt idx="1454" formatCode="General">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1455" formatCode="General">
+                  <c:v>220.1</c:v>
+                </c:pt>
+                <c:pt idx="1456" formatCode="General">
+                  <c:v>221.1</c:v>
+                </c:pt>
+                <c:pt idx="1457" formatCode="General">
+                  <c:v>219.4</c:v>
+                </c:pt>
+                <c:pt idx="1458" formatCode="General">
+                  <c:v>218.5</c:v>
+                </c:pt>
+                <c:pt idx="1459" formatCode="General">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="1460" formatCode="General">
+                  <c:v>219.6</c:v>
+                </c:pt>
+                <c:pt idx="1461" formatCode="General">
+                  <c:v>218.9</c:v>
+                </c:pt>
+                <c:pt idx="1462" formatCode="General">
+                  <c:v>218.7</c:v>
+                </c:pt>
+                <c:pt idx="1463" formatCode="General">
+                  <c:v>219.6</c:v>
+                </c:pt>
+                <c:pt idx="1464" formatCode="General">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1465" formatCode="General">
+                  <c:v>219.4</c:v>
+                </c:pt>
+                <c:pt idx="1466" formatCode="General">
+                  <c:v>220.1</c:v>
+                </c:pt>
+                <c:pt idx="1467" formatCode="General">
+                  <c:v>219.9</c:v>
+                </c:pt>
+                <c:pt idx="1468" formatCode="General">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1469" formatCode="General">
+                  <c:v>218.5</c:v>
+                </c:pt>
+                <c:pt idx="1470" formatCode="General">
+                  <c:v>218.3</c:v>
+                </c:pt>
+                <c:pt idx="1471" formatCode="General">
+                  <c:v>218.1</c:v>
+                </c:pt>
+                <c:pt idx="1472" formatCode="General">
+                  <c:v>218.8</c:v>
+                </c:pt>
+                <c:pt idx="1473" formatCode="General">
+                  <c:v>218.9</c:v>
+                </c:pt>
+                <c:pt idx="1474" formatCode="General">
+                  <c:v>219.1</c:v>
+                </c:pt>
+                <c:pt idx="1475" formatCode="General">
+                  <c:v>218.7</c:v>
+                </c:pt>
+                <c:pt idx="1476" formatCode="General">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="1477" formatCode="General">
+                  <c:v>216.3</c:v>
+                </c:pt>
+                <c:pt idx="1478" formatCode="General">
+                  <c:v>217.6</c:v>
+                </c:pt>
+                <c:pt idx="1479" formatCode="General">
+                  <c:v>218.3</c:v>
+                </c:pt>
+                <c:pt idx="1480" formatCode="General">
+                  <c:v>217.5</c:v>
+                </c:pt>
+                <c:pt idx="1481" formatCode="General">
+                  <c:v>217.8</c:v>
+                </c:pt>
+                <c:pt idx="1482" formatCode="General">
+                  <c:v>216.7</c:v>
+                </c:pt>
+                <c:pt idx="1483" formatCode="General">
+                  <c:v>216.9</c:v>
+                </c:pt>
+                <c:pt idx="1484" formatCode="General">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="1485" formatCode="General">
+                  <c:v>217.3</c:v>
+                </c:pt>
+                <c:pt idx="1486" formatCode="General">
+                  <c:v>218.3</c:v>
+                </c:pt>
+                <c:pt idx="1487" formatCode="General">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="1488" formatCode="General">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="1489" formatCode="General">
+                  <c:v>216.6</c:v>
+                </c:pt>
+                <c:pt idx="1490" formatCode="General">
+                  <c:v>217.4</c:v>
+                </c:pt>
+                <c:pt idx="1491" formatCode="General">
+                  <c:v>217.6</c:v>
+                </c:pt>
+                <c:pt idx="1492" formatCode="General">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="1493" formatCode="General">
+                  <c:v>216.4</c:v>
+                </c:pt>
+                <c:pt idx="1494" formatCode="General">
+                  <c:v>216.2</c:v>
+                </c:pt>
+                <c:pt idx="1495" formatCode="General">
+                  <c:v>217.3</c:v>
+                </c:pt>
+                <c:pt idx="1496" formatCode="General">
+                  <c:v>216.6</c:v>
+                </c:pt>
+                <c:pt idx="1497" formatCode="General">
+                  <c:v>216.1</c:v>
+                </c:pt>
+                <c:pt idx="1498" formatCode="General">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="1499" formatCode="General">
+                  <c:v>217.2</c:v>
+                </c:pt>
+                <c:pt idx="1500" formatCode="General">
+                  <c:v>216.4</c:v>
+                </c:pt>
+                <c:pt idx="1501" formatCode="General">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="1502" formatCode="General">
+                  <c:v>216.3</c:v>
+                </c:pt>
+                <c:pt idx="1503" formatCode="General">
+                  <c:v>215.9</c:v>
+                </c:pt>
+                <c:pt idx="1504" formatCode="General">
+                  <c:v>215.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14368,10 +14993,10 @@
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14732,16 +15357,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1402"/>
+  <dimension ref="A1:F1506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1401" sqref="B1401"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="AQ11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40525,6 +41149,838 @@
         <v>225.9</v>
       </c>
     </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1403" s="8">
+        <v>45576</v>
+      </c>
+      <c r="B1403">
+        <v>226.2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1404" s="8">
+        <v>45577</v>
+      </c>
+      <c r="B1404">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1405" s="8">
+        <v>45578</v>
+      </c>
+      <c r="B1405">
+        <v>226.6</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1406" s="8">
+        <v>45580</v>
+      </c>
+      <c r="B1406">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1407" s="8">
+        <v>45581</v>
+      </c>
+      <c r="B1407">
+        <v>225.8</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1408" s="8">
+        <v>45582</v>
+      </c>
+      <c r="B1408">
+        <v>224.8</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1409" s="14">
+        <v>45583</v>
+      </c>
+      <c r="B1409">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1410" s="14">
+        <v>45584</v>
+      </c>
+      <c r="B1410">
+        <v>224.3</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1411" s="14">
+        <v>45585</v>
+      </c>
+      <c r="B1411">
+        <v>223.8</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1412" s="14">
+        <v>45586</v>
+      </c>
+      <c r="B1412">
+        <v>225.2</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1413" s="14">
+        <v>45588</v>
+      </c>
+      <c r="B1413">
+        <v>225.2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1414" s="14">
+        <v>45589</v>
+      </c>
+      <c r="B1414">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1415" s="14">
+        <v>45590</v>
+      </c>
+      <c r="B1415">
+        <v>224.3</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1416" s="14">
+        <v>45591</v>
+      </c>
+      <c r="B1416">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1417" s="14">
+        <v>45592</v>
+      </c>
+      <c r="B1417">
+        <v>225.1</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1418" s="14">
+        <v>45593</v>
+      </c>
+      <c r="B1418">
+        <v>224.8</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1419" s="14">
+        <v>45594</v>
+      </c>
+      <c r="B1419">
+        <v>224.4</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1420" s="14">
+        <v>45595</v>
+      </c>
+      <c r="B1420">
+        <v>224.3</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1421" s="14">
+        <v>45596</v>
+      </c>
+      <c r="B1421">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1422" s="14">
+        <v>45597</v>
+      </c>
+      <c r="B1422">
+        <v>223.3</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1423" s="14">
+        <v>45598</v>
+      </c>
+      <c r="B1423">
+        <v>223.2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1424" s="14">
+        <v>45599</v>
+      </c>
+      <c r="B1424">
+        <v>223.1</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1425" s="14">
+        <v>45599</v>
+      </c>
+      <c r="B1425">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1426" s="14">
+        <v>45600</v>
+      </c>
+      <c r="B1426">
+        <v>222.9</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1427" s="14">
+        <v>45601</v>
+      </c>
+      <c r="B1427">
+        <v>222.6</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1428" s="14">
+        <v>45602</v>
+      </c>
+      <c r="B1428">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1429" s="14">
+        <v>45603</v>
+      </c>
+      <c r="B1429">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1430" s="14">
+        <v>45604</v>
+      </c>
+      <c r="B1430">
+        <v>222.3</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1431" s="14">
+        <v>45605</v>
+      </c>
+      <c r="B1431">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1432" s="14">
+        <v>45606</v>
+      </c>
+      <c r="B1432">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1433" s="14">
+        <v>45607</v>
+      </c>
+      <c r="B1433">
+        <v>223.4</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1434" s="14">
+        <v>45610</v>
+      </c>
+      <c r="B1434">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1435" s="14">
+        <v>45610</v>
+      </c>
+      <c r="B1435">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1436" s="14">
+        <v>45610</v>
+      </c>
+      <c r="B1436">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1437" s="14">
+        <v>45611</v>
+      </c>
+      <c r="B1437">
+        <v>222.2</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1438" s="14">
+        <v>45612</v>
+      </c>
+      <c r="B1438">
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1439" s="14">
+        <v>45613</v>
+      </c>
+      <c r="B1439">
+        <v>223.2</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1440" s="14">
+        <v>45615</v>
+      </c>
+      <c r="B1440">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1441" s="14">
+        <v>45616</v>
+      </c>
+      <c r="B1441">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1442" s="14">
+        <v>45617</v>
+      </c>
+      <c r="B1442">
+        <v>221.8</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1443" s="14">
+        <v>45618</v>
+      </c>
+      <c r="B1443">
+        <v>222.1</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1444" s="14">
+        <v>45619</v>
+      </c>
+      <c r="B1444">
+        <v>221.6</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1445" s="14">
+        <v>45619</v>
+      </c>
+      <c r="B1445">
+        <v>221.2</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1446" s="14">
+        <v>45620</v>
+      </c>
+      <c r="B1446">
+        <v>220.3</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1447" s="14">
+        <v>45621</v>
+      </c>
+      <c r="B1447">
+        <v>221.5</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1448" s="14">
+        <v>45622</v>
+      </c>
+      <c r="B1448">
+        <v>222.4</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1449" s="14">
+        <v>45628</v>
+      </c>
+      <c r="B1449">
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1450" s="14">
+        <v>45629</v>
+      </c>
+      <c r="B1450">
+        <v>221.9</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1451" s="14">
+        <v>45630</v>
+      </c>
+      <c r="B1451">
+        <v>221.7</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1452" s="14">
+        <v>45631</v>
+      </c>
+      <c r="B1452">
+        <v>220.6</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1453" s="14">
+        <v>45632</v>
+      </c>
+      <c r="B1453">
+        <v>219.8</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1454" s="14">
+        <v>45633</v>
+      </c>
+      <c r="B1454">
+        <v>220.1</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1455" s="14">
+        <v>45634</v>
+      </c>
+      <c r="B1455">
+        <v>221.2</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1456" s="14">
+        <v>45635</v>
+      </c>
+      <c r="B1456">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1457" s="14">
+        <v>45636</v>
+      </c>
+      <c r="B1457">
+        <v>220.1</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1458" s="14">
+        <v>45637</v>
+      </c>
+      <c r="B1458">
+        <v>221.1</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1459" s="14">
+        <v>45638</v>
+      </c>
+      <c r="B1459">
+        <v>219.4</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1460" s="14">
+        <v>45639</v>
+      </c>
+      <c r="B1460">
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1461" s="14">
+        <v>45640</v>
+      </c>
+      <c r="B1461">
+        <v>219.5</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1462" s="14">
+        <v>45641</v>
+      </c>
+      <c r="B1462">
+        <v>219.6</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1463" s="14">
+        <v>45642</v>
+      </c>
+      <c r="B1463">
+        <v>218.9</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1464" s="14">
+        <v>45643</v>
+      </c>
+      <c r="B1464">
+        <v>218.7</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1465" s="14">
+        <v>45653</v>
+      </c>
+      <c r="B1465">
+        <v>219.6</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1466" s="14">
+        <v>45654</v>
+      </c>
+      <c r="B1466">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1467" s="14">
+        <v>45655</v>
+      </c>
+      <c r="B1467">
+        <v>219.4</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1468" s="14">
+        <v>45656</v>
+      </c>
+      <c r="B1468">
+        <v>220.1</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1469" s="14">
+        <v>45657</v>
+      </c>
+      <c r="B1469">
+        <v>219.9</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1470" s="14">
+        <v>45659</v>
+      </c>
+      <c r="B1470">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1471" s="14">
+        <v>45660</v>
+      </c>
+      <c r="B1471">
+        <v>218.5</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1472" s="14">
+        <v>45661</v>
+      </c>
+      <c r="B1472">
+        <v>218.3</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1473" s="14">
+        <v>45662</v>
+      </c>
+      <c r="B1473">
+        <v>218.1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1474" s="14">
+        <v>45663</v>
+      </c>
+      <c r="B1474">
+        <v>218.8</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1475" s="14">
+        <v>45664</v>
+      </c>
+      <c r="B1475">
+        <v>218.9</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1476" s="14">
+        <v>45665</v>
+      </c>
+      <c r="B1476">
+        <v>219.1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1477" s="14">
+        <v>45666</v>
+      </c>
+      <c r="B1477">
+        <v>218.7</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1478" s="14">
+        <v>45667</v>
+      </c>
+      <c r="B1478">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1479" s="14">
+        <v>45668</v>
+      </c>
+      <c r="B1479">
+        <v>216.3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1480" s="14">
+        <v>45669</v>
+      </c>
+      <c r="B1480">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1481" s="14">
+        <v>45670</v>
+      </c>
+      <c r="B1481">
+        <v>218.3</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1482" s="14">
+        <v>45671</v>
+      </c>
+      <c r="B1482">
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1483" s="14">
+        <v>45672</v>
+      </c>
+      <c r="B1483">
+        <v>217.8</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1484" s="14">
+        <v>45673</v>
+      </c>
+      <c r="B1484">
+        <v>216.7</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1485" s="14">
+        <v>45674</v>
+      </c>
+      <c r="B1485">
+        <v>216.9</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1486" s="14">
+        <v>45675</v>
+      </c>
+      <c r="B1486">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1487" s="14">
+        <v>45676</v>
+      </c>
+      <c r="B1487">
+        <v>217.3</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1488" s="14">
+        <v>45677</v>
+      </c>
+      <c r="B1488">
+        <v>218.3</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1489" s="14">
+        <v>45678</v>
+      </c>
+      <c r="B1489">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1490" s="14">
+        <v>45679</v>
+      </c>
+      <c r="B1490">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1491" s="14">
+        <v>45680</v>
+      </c>
+      <c r="B1491">
+        <v>216.6</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1492" s="14">
+        <v>45681</v>
+      </c>
+      <c r="B1492">
+        <v>217.4</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1493" s="14">
+        <v>45682</v>
+      </c>
+      <c r="B1493">
+        <v>217.6</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1494" s="14">
+        <v>45683</v>
+      </c>
+      <c r="B1494">
+        <v>217.2</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1495" s="14">
+        <v>45684</v>
+      </c>
+      <c r="B1495">
+        <v>216.4</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1496" s="14">
+        <v>45685</v>
+      </c>
+      <c r="B1496">
+        <v>216.2</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1497" s="14">
+        <v>45686</v>
+      </c>
+      <c r="B1497">
+        <v>217.3</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1498" s="14">
+        <v>45687</v>
+      </c>
+      <c r="B1498">
+        <v>216.6</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1499" s="14">
+        <v>45688</v>
+      </c>
+      <c r="B1499">
+        <v>216.1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1500" s="14">
+        <v>45689</v>
+      </c>
+      <c r="B1500">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1501" s="14">
+        <v>45690</v>
+      </c>
+      <c r="B1501">
+        <v>217.2</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1502" s="14">
+        <v>45691</v>
+      </c>
+      <c r="B1502">
+        <v>216.4</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1503" s="14">
+        <v>45692</v>
+      </c>
+      <c r="B1503">
+        <v>216.5</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1504" s="14">
+        <v>45693</v>
+      </c>
+      <c r="B1504">
+        <v>216.3</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1505" s="14">
+        <v>45694</v>
+      </c>
+      <c r="B1505">
+        <v>215.9</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1506" s="14">
+        <v>45695</v>
+      </c>
+      <c r="B1506">
+        <v>215.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
